--- a/Dashboard/FCA_RYG.xlsx
+++ b/Dashboard/FCA_RYG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>C_PMSC_ev_PT_SignHtrMin</t>
   </si>
   <si>
-    <t xml:space="preserve">P_PMSC_PT_IntgAbsExhAccel            </t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -156,13 +153,16 @@
   </si>
   <si>
     <t>&gt; -2.5</t>
+  </si>
+  <si>
+    <t>P_PMSC_PT_IntgAbsExhAccel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +173,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,11 +206,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +495,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,30 +507,30 @@
     <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -545,7 +554,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -559,16 +568,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -582,16 +591,16 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -602,19 +611,19 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -625,19 +634,19 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -645,22 +654,22 @@
         <v>13096</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -671,19 +680,19 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -694,19 +703,19 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -717,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" t="s">
         <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Dashboard/FCA_RYG.xlsx
+++ b/Dashboard/FCA_RYG.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
   <si>
     <t>SEID</t>
   </si>
@@ -119,9 +120,6 @@
     <t>C_PMSC_trc_STD_RefMonDiffMax</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>&gt; 0.8 * C_PMSC_trc_STD_RefMonDiffMax</t>
   </si>
   <si>
@@ -156,6 +154,102 @@
   </si>
   <si>
     <t>P_PMSC_PT_IntgAbsExhAccel</t>
+  </si>
+  <si>
+    <t>MULTIPLE_CYL_PR_EMP_MISFIRE_ERROR</t>
+  </si>
+  <si>
+    <t>OBD_Misfire_Total_Ratio</t>
+  </si>
+  <si>
+    <t>C_OBD_Misfire_Fault_Thd</t>
+  </si>
+  <si>
+    <t>DEF_LOW_FLOW_ERR</t>
+  </si>
+  <si>
+    <t>V_USD_UDM_SampleCusumVal</t>
+  </si>
+  <si>
+    <t>C_USD_UDM_CusumHiThd</t>
+  </si>
+  <si>
+    <t>&gt; 0.8 * C_USD_UDM_CusumHiThd</t>
+  </si>
+  <si>
+    <t>DPF_TOO_FREQUENT_REGEN_ERR_diff</t>
+  </si>
+  <si>
+    <t>P_SFD_tmh_TFR_ActualTime - V_SFD_tmh_TooFreqRegen_Thd</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>FUEL_PRESS_RATIONALITY_HIGH_ERROR</t>
+  </si>
+  <si>
+    <t>H_PRD_ti_HighError</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>C_PRD_ti_ErrorLim</t>
+  </si>
+  <si>
+    <t>QTD_INJECTOR_1_COI_ERROR</t>
+  </si>
+  <si>
+    <t>H_FED_q_CylAveFuelingErrors0</t>
+  </si>
+  <si>
+    <t>mg/stroke</t>
+  </si>
+  <si>
+    <t>C_FED_q_LowFuelErrorLmt</t>
+  </si>
+  <si>
+    <t>C_FED_q_HighFuelErrorLmt</t>
+  </si>
+  <si>
+    <t>QTD_INJECTOR_2_COI_ERROR</t>
+  </si>
+  <si>
+    <t>H_FED_q_CylAveFuelingErrors1</t>
+  </si>
+  <si>
+    <t>QTD_INJECTOR_3_COI_ERROR</t>
+  </si>
+  <si>
+    <t>H_FED_q_CylAveFuelingErrors2</t>
+  </si>
+  <si>
+    <t>QTD_INJECTOR_4_COI_ERROR</t>
+  </si>
+  <si>
+    <t>H_FED_q_CylAveFuelingErrors3</t>
+  </si>
+  <si>
+    <t>QTD_INJECTOR_5_COI_ERROR</t>
+  </si>
+  <si>
+    <t>H_FED_q_CylAveFuelingErrors4</t>
+  </si>
+  <si>
+    <t>QTD_INJECTOR_6_COI_ERROR</t>
+  </si>
+  <si>
+    <t>H_FED_q_CylAveFuelingErrors5</t>
+  </si>
+  <si>
+    <t>SCR_EFFICIENCY_DEGRADED_ERR</t>
+  </si>
+  <si>
+    <t>P_SCDE_CE2_EWMA_FiltVal</t>
+  </si>
+  <si>
+    <t>C_SCDE_CE2_Set_Thd</t>
   </si>
 </sst>
 </file>
@@ -206,12 +300,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -651,25 +746,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>13096</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
+        <v>13095</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -677,19 +772,19 @@
         <v>13095</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -697,52 +792,315 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>13095</v>
+        <v>13097</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
-        <v>36</v>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>13097</v>
+        <v>12019</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8289</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3590</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>7209</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10910</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>13096</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>